--- a/pred_ohlcv/54_21/2020-01-21 BCH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 BCH ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>860.2769085500003</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>818.7180894100003</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>871.1800894100003</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>916.4715894100003</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -652,7 +652,7 @@
         <v>817.6889015900003</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>894.1655727900004</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>949.2593033600004</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>904.1599033600005</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>840.6554033600005</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>942.7739033600005</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>1010.094503360001</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>578.2549033600005</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>582.8820046000005</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>580.7456046000005</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>280.5301925600002</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>236.4852880900002</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>179.2137880900002</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>165.4169880900002</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>197.8444880900002</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>617.0508880900002</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>696.7999880900002</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>695.2421880900001</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>695.2421880900001</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>705.0112880900001</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>682.0686880900001</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>308.4652880900001</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>308.4652880900001</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>308.4652880900001</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-103.1253119099999</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>-1953.479413249998</v>
       </c>
       <c r="H958">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>-1805.072713249998</v>
       </c>
       <c r="H959">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>-1835.940387789998</v>
       </c>
       <c r="H960">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>-1787.162987789998</v>
       </c>
       <c r="H961">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>-1789.857187789998</v>
       </c>
       <c r="H962">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>-1786.692187789998</v>
       </c>
       <c r="H963">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>-1551.938287789998</v>
       </c>
       <c r="H964">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>-1606.823108769998</v>
       </c>
       <c r="H991">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -27380,7 +27380,7 @@
         <v>-1847.104107969998</v>
       </c>
       <c r="H1038">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1039" spans="1:8">
@@ -27406,7 +27406,7 @@
         <v>-1814.876507969998</v>
       </c>
       <c r="H1039">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -27432,7 +27432,7 @@
         <v>-1813.923507969998</v>
       </c>
       <c r="H1040">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -27458,7 +27458,7 @@
         <v>-1840.042207969998</v>
       </c>
       <c r="H1041">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1042" spans="1:8">
@@ -27484,7 +27484,7 @@
         <v>-1866.502507969998</v>
       </c>
       <c r="H1042">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1043" spans="1:8">
@@ -27510,7 +27510,7 @@
         <v>-1858.245868749998</v>
       </c>
       <c r="H1043">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1044" spans="1:8">
@@ -27536,7 +27536,7 @@
         <v>-1858.245868749998</v>
       </c>
       <c r="H1044">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1045" spans="1:8">
@@ -27562,7 +27562,7 @@
         <v>-1848.796168749998</v>
       </c>
       <c r="H1045">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1046" spans="1:8">
@@ -27588,7 +27588,7 @@
         <v>-1828.663368749998</v>
       </c>
       <c r="H1046">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1047" spans="1:8">
@@ -27614,7 +27614,7 @@
         <v>-1827.663368749998</v>
       </c>
       <c r="H1047">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1048" spans="1:8">
@@ -28732,7 +28732,7 @@
         <v>-812.0357921499983</v>
       </c>
       <c r="H1090">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1091" spans="1:8">
@@ -28758,7 +28758,7 @@
         <v>-822.1732921499984</v>
       </c>
       <c r="H1091">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1092" spans="1:8">
@@ -28784,7 +28784,7 @@
         <v>-803.2699921499984</v>
       </c>
       <c r="H1092">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1093" spans="1:8">
@@ -28810,7 +28810,7 @@
         <v>-802.8017921499984</v>
       </c>
       <c r="H1093">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1094" spans="1:8">
@@ -28836,7 +28836,7 @@
         <v>-833.9600921499984</v>
       </c>
       <c r="H1094">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1095" spans="1:8">
@@ -28862,7 +28862,7 @@
         <v>-833.9600921499984</v>
       </c>
       <c r="H1095">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1096" spans="1:8">
@@ -28888,7 +28888,7 @@
         <v>-833.8597921499985</v>
       </c>
       <c r="H1096">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1097" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-21 BCH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 BCH ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>860.2769085500003</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>818.7180894100003</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>871.1800894100003</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>916.4715894100003</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -652,7 +652,7 @@
         <v>817.6889015900003</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>894.1655727900004</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -730,7 +730,7 @@
         <v>904.1599033600005</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>840.6554033600005</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -860,7 +860,7 @@
         <v>582.8820046000005</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>580.7456046000005</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>157.9997925600002</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>280.5301925600002</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>236.4852880900002</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>179.2137880900002</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>165.4169880900002</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>197.8444880900002</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>617.0508880900002</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>696.7999880900002</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>695.2421880900001</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>695.2421880900001</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>705.0112880900001</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>682.0686880900001</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>308.4652880900001</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>308.4652880900001</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>308.4652880900001</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-116.9190119099999</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-103.1253119099999</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>-1953.479413249998</v>
       </c>
       <c r="H958">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>-1805.072713249998</v>
       </c>
       <c r="H959">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>-1835.940387789998</v>
       </c>
       <c r="H960">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>-1787.162987789998</v>
       </c>
       <c r="H961">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>-1789.857187789998</v>
       </c>
       <c r="H962">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>-1786.692187789998</v>
       </c>
       <c r="H963">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>-1551.938287789998</v>
       </c>
       <c r="H964">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>-1606.823108769998</v>
       </c>
       <c r="H991">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -27380,7 +27380,7 @@
         <v>-1847.104107969998</v>
       </c>
       <c r="H1038">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1039" spans="1:8">
@@ -27406,7 +27406,7 @@
         <v>-1814.876507969998</v>
       </c>
       <c r="H1039">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -27432,7 +27432,7 @@
         <v>-1813.923507969998</v>
       </c>
       <c r="H1040">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -27458,7 +27458,7 @@
         <v>-1840.042207969998</v>
       </c>
       <c r="H1041">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1042" spans="1:8">
@@ -27484,7 +27484,7 @@
         <v>-1866.502507969998</v>
       </c>
       <c r="H1042">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1043" spans="1:8">
@@ -27510,7 +27510,7 @@
         <v>-1858.245868749998</v>
       </c>
       <c r="H1043">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1044" spans="1:8">
@@ -27536,7 +27536,7 @@
         <v>-1858.245868749998</v>
       </c>
       <c r="H1044">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1045" spans="1:8">
@@ -27562,7 +27562,7 @@
         <v>-1848.796168749998</v>
       </c>
       <c r="H1045">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1046" spans="1:8">
@@ -27588,7 +27588,7 @@
         <v>-1828.663368749998</v>
       </c>
       <c r="H1046">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1047" spans="1:8">
@@ -27614,7 +27614,7 @@
         <v>-1827.663368749998</v>
       </c>
       <c r="H1047">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1048" spans="1:8">
@@ -27640,7 +27640,7 @@
         <v>-1724.527168749998</v>
       </c>
       <c r="H1048">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1049" spans="1:8">
@@ -28732,7 +28732,7 @@
         <v>-812.0357921499983</v>
       </c>
       <c r="H1090">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1091" spans="1:8">
@@ -28758,7 +28758,7 @@
         <v>-822.1732921499984</v>
       </c>
       <c r="H1091">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1092" spans="1:8">
@@ -28784,7 +28784,7 @@
         <v>-803.2699921499984</v>
       </c>
       <c r="H1092">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1093" spans="1:8">
@@ -28810,7 +28810,7 @@
         <v>-802.8017921499984</v>
       </c>
       <c r="H1093">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1094" spans="1:8">
@@ -28836,7 +28836,7 @@
         <v>-833.9600921499984</v>
       </c>
       <c r="H1094">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1095" spans="1:8">
@@ -28862,7 +28862,7 @@
         <v>-833.9600921499984</v>
       </c>
       <c r="H1095">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1096" spans="1:8">
@@ -28888,7 +28888,7 @@
         <v>-833.8597921499985</v>
       </c>
       <c r="H1096">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1097" spans="1:8">
